--- a/data/trans_orig/P42A-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P42A-Estudios-trans_orig.xlsx
@@ -624,19 +624,19 @@
         <v>87142</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>73744</v>
+        <v>72416</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>106595</v>
+        <v>103376</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.2274232211175704</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1924570745005707</v>
+        <v>0.1889911870451295</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.2781900146299673</v>
+        <v>0.2697900120786254</v>
       </c>
     </row>
     <row r="5">
@@ -653,19 +653,19 @@
         <v>75711</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>60291</v>
+        <v>61004</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>91221</v>
+        <v>90875</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.197590768517637</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.1573478618893713</v>
+        <v>0.159206597180164</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.2380682122180499</v>
+        <v>0.2371635962737029</v>
       </c>
     </row>
     <row r="6">
@@ -682,19 +682,19 @@
         <v>91534</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>76554</v>
+        <v>76367</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>109796</v>
+        <v>109633</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.2388854475101127</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.1997885669747578</v>
+        <v>0.1993021026441981</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.2865432741948218</v>
+        <v>0.2861181391752185</v>
       </c>
     </row>
     <row r="7">
@@ -711,19 +711,19 @@
         <v>75124</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>61136</v>
+        <v>60068</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>92420</v>
+        <v>90772</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1960576669344067</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.159551102491718</v>
+        <v>0.1567639261725647</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.2411962778640201</v>
+        <v>0.2368955252839496</v>
       </c>
     </row>
     <row r="8">
@@ -740,19 +740,19 @@
         <v>53661</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>40689</v>
+        <v>41497</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>67422</v>
+        <v>69294</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.1400428959202732</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.1061905831062779</v>
+        <v>0.1082992789802537</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.1759570541448188</v>
+        <v>0.1808437743255578</v>
       </c>
     </row>
     <row r="9">
@@ -802,19 +802,19 @@
         <v>118869</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>100176</v>
+        <v>100520</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>139785</v>
+        <v>140113</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.2224056663998629</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1874303328453411</v>
+        <v>0.1880752632542706</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.2615398755621138</v>
+        <v>0.2621535802252953</v>
       </c>
     </row>
     <row r="11">
@@ -831,19 +831,19 @@
         <v>100460</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>83818</v>
+        <v>82052</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>121753</v>
+        <v>118840</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.1879615130217559</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.1568242622280543</v>
+        <v>0.1535205419460317</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.227800985839806</v>
+        <v>0.2223508588654817</v>
       </c>
     </row>
     <row r="12">
@@ -860,19 +860,19 @@
         <v>118273</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>98338</v>
+        <v>100432</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>139416</v>
+        <v>139648</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.2212908184661115</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.183991337699063</v>
+        <v>0.1879096951080361</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.260849397894489</v>
+        <v>0.2612839359626085</v>
       </c>
     </row>
     <row r="13">
@@ -889,19 +889,19 @@
         <v>105160</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>87380</v>
+        <v>89349</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>124257</v>
+        <v>127486</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1967550971533476</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.163489138420944</v>
+        <v>0.1671726219915604</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.232487196010755</v>
+        <v>0.2385289454200317</v>
       </c>
     </row>
     <row r="14">
@@ -918,19 +918,19 @@
         <v>91708</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>74465</v>
+        <v>75828</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>110196</v>
+        <v>109233</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.1715869049589221</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.1393257438324736</v>
+        <v>0.1418747873371299</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.2061777774679913</v>
+        <v>0.2043767416526515</v>
       </c>
     </row>
     <row r="15">
@@ -980,19 +980,19 @@
         <v>37521</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>26956</v>
+        <v>28406</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>48806</v>
+        <v>49434</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.2188158303059464</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1572029130679426</v>
+        <v>0.1656586788482826</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.2846279617218968</v>
+        <v>0.2882882338209009</v>
       </c>
     </row>
     <row r="17">
@@ -1009,19 +1009,19 @@
         <v>28480</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>19205</v>
+        <v>19640</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>38794</v>
+        <v>38021</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.166088298696683</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.1119972805322758</v>
+        <v>0.1145341275763898</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.226239294808665</v>
+        <v>0.2217306775412256</v>
       </c>
     </row>
     <row r="18">
@@ -1038,19 +1038,19 @@
         <v>43097</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>33060</v>
+        <v>31725</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>56034</v>
+        <v>54735</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.251332098094289</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.1927996748002617</v>
+        <v>0.1850142768629787</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.3267759410674962</v>
+        <v>0.3192015206895231</v>
       </c>
     </row>
     <row r="19">
@@ -1067,19 +1067,19 @@
         <v>33689</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>23765</v>
+        <v>24675</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>45464</v>
+        <v>45576</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.1964675431896397</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.1385906958481977</v>
+        <v>0.1439002690392112</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.2651389451171337</v>
+        <v>0.2657868301062049</v>
       </c>
     </row>
     <row r="20">
@@ -1096,19 +1096,19 @@
         <v>28687</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>19558</v>
+        <v>20508</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>39673</v>
+        <v>40019</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.1672962297134418</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.1140587758023626</v>
+        <v>0.1196000809000008</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.2313625581675981</v>
+        <v>0.2333797707294307</v>
       </c>
     </row>
     <row r="21">
@@ -1158,19 +1158,19 @@
         <v>243533</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>213059</v>
+        <v>218962</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>269907</v>
+        <v>272386</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.2236057494378264</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.1956260292164843</v>
+        <v>0.2010458575576597</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.2478223654382526</v>
+        <v>0.2500977936017225</v>
       </c>
     </row>
     <row r="23">
@@ -1187,19 +1187,19 @@
         <v>204651</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>178701</v>
+        <v>178380</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>232849</v>
+        <v>229932</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.187905491912048</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.1640791271294593</v>
+        <v>0.1637845663331707</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.2137960253236673</v>
+        <v>0.2111176720255953</v>
       </c>
     </row>
     <row r="24">
@@ -1216,19 +1216,19 @@
         <v>252904</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>226864</v>
+        <v>225383</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>280524</v>
+        <v>280929</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.2322107671915421</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.2083012535456598</v>
+        <v>0.2069410734909823</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.2575700178494156</v>
+        <v>0.2579424372001012</v>
       </c>
     </row>
     <row r="25">
@@ -1245,19 +1245,19 @@
         <v>213973</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>186089</v>
+        <v>189253</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>242049</v>
+        <v>241217</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.1964644534671008</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.1708620159824804</v>
+        <v>0.1737679702142075</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.2222434497779749</v>
+        <v>0.2214795663153391</v>
       </c>
     </row>
     <row r="26">
@@ -1274,19 +1274,19 @@
         <v>174055</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>151254</v>
+        <v>150981</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>202901</v>
+        <v>198500</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.1598135379914828</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.1388779340566831</v>
+        <v>0.1386267893467761</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.1862990693324026</v>
+        <v>0.1822578544695352</v>
       </c>
     </row>
     <row r="27">
@@ -1453,19 +1453,19 @@
         <v>160935</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>138333</v>
+        <v>138254</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>187675</v>
+        <v>185061</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1416492232237437</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1217554248576663</v>
+        <v>0.1216865330599465</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1651846108407235</v>
+        <v>0.1628841461074722</v>
       </c>
     </row>
     <row r="5">
@@ -1482,19 +1482,19 @@
         <v>412947</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>381224</v>
+        <v>377229</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>444908</v>
+        <v>443820</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.3634610777106408</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.3355393615174394</v>
+        <v>0.3320232965121863</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.3915924049919527</v>
+        <v>0.3906340145265549</v>
       </c>
     </row>
     <row r="6">
@@ -1511,19 +1511,19 @@
         <v>278470</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>249514</v>
+        <v>249938</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>308701</v>
+        <v>310261</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.2450991073871314</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.2196134611674702</v>
+        <v>0.2199862709766392</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.2717076780704484</v>
+        <v>0.2730803547148281</v>
       </c>
     </row>
     <row r="7">
@@ -1540,19 +1540,19 @@
         <v>169590</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>146831</v>
+        <v>145455</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>196111</v>
+        <v>192765</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1492666662055691</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1292356641606166</v>
+        <v>0.1280241760043432</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.172609617964672</v>
+        <v>0.1696646762254687</v>
       </c>
     </row>
     <row r="8">
@@ -1569,19 +1569,19 @@
         <v>114210</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>91164</v>
+        <v>95813</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>135506</v>
+        <v>135078</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.100523925472915</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.08023919236871938</v>
+        <v>0.08433109434548076</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.1192676224686783</v>
+        <v>0.1188905515111736</v>
       </c>
     </row>
     <row r="9">
@@ -1631,19 +1631,19 @@
         <v>154491</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>131378</v>
+        <v>131731</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>177624</v>
+        <v>179958</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1015258980740758</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.08633650444674418</v>
+        <v>0.08656888732462738</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1167276791865105</v>
+        <v>0.1182615431401583</v>
       </c>
     </row>
     <row r="11">
@@ -1660,19 +1660,19 @@
         <v>221059</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>193306</v>
+        <v>192217</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>249305</v>
+        <v>249998</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.1452717224343784</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.1270337306019572</v>
+        <v>0.1263182007320426</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.163834325884214</v>
+        <v>0.1642893453259501</v>
       </c>
     </row>
     <row r="12">
@@ -1689,19 +1689,19 @@
         <v>490698</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>451232</v>
+        <v>456506</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>528399</v>
+        <v>532062</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.3224683770309259</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.2965333716601345</v>
+        <v>0.2999988974670271</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.3472440560049478</v>
+        <v>0.3496515314314071</v>
       </c>
     </row>
     <row r="13">
@@ -1718,19 +1718,19 @@
         <v>363249</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>331113</v>
+        <v>328766</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>402267</v>
+        <v>397725</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.2387141814509135</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.2175953870707268</v>
+        <v>0.2160527248042992</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.2643551482252126</v>
+        <v>0.2613700188353552</v>
       </c>
     </row>
     <row r="14">
@@ -1747,19 +1747,19 @@
         <v>292195</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>262420</v>
+        <v>260660</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>325614</v>
+        <v>325497</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.1920198210097065</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.1724529198983487</v>
+        <v>0.1712962339672199</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.2139813618717746</v>
+        <v>0.213904518279906</v>
       </c>
     </row>
     <row r="15">
@@ -1809,19 +1809,19 @@
         <v>14772</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>7932</v>
+        <v>8809</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>23753</v>
+        <v>24033</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.03505909264053953</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.0188249106730529</v>
+        <v>0.02090700699074002</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.05637385004530002</v>
+        <v>0.05703968168990921</v>
       </c>
     </row>
     <row r="17">
@@ -1838,19 +1838,19 @@
         <v>41016</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>29547</v>
+        <v>29108</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>55733</v>
+        <v>55860</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.09734516114840074</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.07012573744337314</v>
+        <v>0.06908306627823836</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.1322744155566412</v>
+        <v>0.1325755932633426</v>
       </c>
     </row>
     <row r="18">
@@ -1867,19 +1867,19 @@
         <v>144776</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>124783</v>
+        <v>123117</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>165864</v>
+        <v>165787</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.3436043264252746</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.2961543006175966</v>
+        <v>0.292200912816295</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.3936555396035157</v>
+        <v>0.3934715685774045</v>
       </c>
     </row>
     <row r="19">
@@ -1896,19 +1896,19 @@
         <v>123354</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>103502</v>
+        <v>104198</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>143792</v>
+        <v>143703</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.2927623989880406</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.2456475339550821</v>
+        <v>0.2473002467470601</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.341270363621793</v>
+        <v>0.3410587043032893</v>
       </c>
     </row>
     <row r="20">
@@ -1925,19 +1925,19 @@
         <v>97427</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>78960</v>
+        <v>79986</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>116450</v>
+        <v>116780</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.2312290207977445</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.1873995840129966</v>
+        <v>0.1898359617019862</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.2763783791695299</v>
+        <v>0.2771598610743295</v>
       </c>
     </row>
     <row r="21">
@@ -1987,19 +1987,19 @@
         <v>330198</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>297514</v>
+        <v>296616</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>366568</v>
+        <v>365914</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.107235457355087</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.09662108372933723</v>
+        <v>0.09632941048801422</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.1190468288553669</v>
+        <v>0.1188346677847255</v>
       </c>
     </row>
     <row r="23">
@@ -2016,19 +2016,19 @@
         <v>675022</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>630139</v>
+        <v>626117</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>721202</v>
+        <v>718675</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.2192206666780827</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.2046444711626461</v>
+        <v>0.2033385014339116</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.2342181024294002</v>
+        <v>0.2333976972481055</v>
       </c>
     </row>
     <row r="24">
@@ -2045,19 +2045,19 @@
         <v>913943</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>859935</v>
+        <v>861292</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>962573</v>
+        <v>964178</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.2968129950173616</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.2792734510570538</v>
+        <v>0.2797139042911841</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.3126062058744226</v>
+        <v>0.3131274843189198</v>
       </c>
     </row>
     <row r="25">
@@ -2074,19 +2074,19 @@
         <v>656193</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>609916</v>
+        <v>616068</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>699674</v>
+        <v>706119</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.2131057805757982</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.1980767792429266</v>
+        <v>0.2000749720058182</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.2272268689686966</v>
+        <v>0.2293197748908114</v>
       </c>
     </row>
     <row r="26">
@@ -2103,19 +2103,19 @@
         <v>503832</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>463774</v>
+        <v>464125</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>549496</v>
+        <v>546167</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.1636251003736706</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.1506157969113346</v>
+        <v>0.1507295753514562</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.1784548331616697</v>
+        <v>0.1773736345282689</v>
       </c>
     </row>
     <row r="27">
@@ -2282,19 +2282,19 @@
         <v>122358</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>101999</v>
+        <v>102314</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>145141</v>
+        <v>145558</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1480999760031047</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1234576716464162</v>
+        <v>0.1238396453838203</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1756759792793485</v>
+        <v>0.1761812168217422</v>
       </c>
     </row>
     <row r="5">
@@ -2311,19 +2311,19 @@
         <v>337088</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>308139</v>
+        <v>308523</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>365922</v>
+        <v>368376</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.4080049774533733</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.3729665194182273</v>
+        <v>0.3734306760176825</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.4429056087451623</v>
+        <v>0.4458754873030133</v>
       </c>
     </row>
     <row r="6">
@@ -2340,19 +2340,19 @@
         <v>229595</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>203700</v>
+        <v>203852</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>256942</v>
+        <v>256267</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.2778978058163237</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.2465554093878963</v>
+        <v>0.2467388021979609</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.3109977155227526</v>
+        <v>0.3101815342182035</v>
       </c>
     </row>
     <row r="7">
@@ -2369,19 +2369,19 @@
         <v>82433</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>64715</v>
+        <v>67661</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>100420</v>
+        <v>102176</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.09977520182586191</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.078330413750706</v>
+        <v>0.08189520580288333</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1215462688592087</v>
+        <v>0.1236726432773233</v>
       </c>
     </row>
     <row r="8">
@@ -2398,19 +2398,19 @@
         <v>54712</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>42636</v>
+        <v>41295</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>72175</v>
+        <v>71175</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.06622203890133636</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.0516059581156986</v>
+        <v>0.04998290723055535</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.08735899525476896</v>
+        <v>0.08614861552157931</v>
       </c>
     </row>
     <row r="9">
@@ -2460,19 +2460,19 @@
         <v>110450</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>90735</v>
+        <v>90398</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>133315</v>
+        <v>133179</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.06417834936605524</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.05272236014655915</v>
+        <v>0.0525267175432216</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.0774644455360925</v>
+        <v>0.07738498573665666</v>
       </c>
     </row>
     <row r="11">
@@ -2489,19 +2489,19 @@
         <v>343972</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>312928</v>
+        <v>309445</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>378111</v>
+        <v>377315</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.1998688678317975</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.1818301268171788</v>
+        <v>0.1798062441361995</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.2197056218200393</v>
+        <v>0.2192430451620433</v>
       </c>
     </row>
     <row r="12">
@@ -2518,19 +2518,19 @@
         <v>693417</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>650742</v>
+        <v>647516</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>734574</v>
+        <v>735126</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.4029179126338166</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.378120920962261</v>
+        <v>0.3762465572989124</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.426832318940652</v>
+        <v>0.4271533413149205</v>
       </c>
     </row>
     <row r="13">
@@ -2547,19 +2547,19 @@
         <v>328929</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>292981</v>
+        <v>298332</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>360540</v>
+        <v>362232</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1911281591273702</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1702398426206602</v>
+        <v>0.1733493344739575</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.2094956954244435</v>
+        <v>0.2104787276949084</v>
       </c>
     </row>
     <row r="14">
@@ -2576,19 +2576,19 @@
         <v>244220</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>214959</v>
+        <v>215507</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>272697</v>
+        <v>275683</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.1419067110409605</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.1249041582929696</v>
+        <v>0.125222709407715</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.1584539408850511</v>
+        <v>0.1601887614568544</v>
       </c>
     </row>
     <row r="15">
@@ -2638,19 +2638,19 @@
         <v>19093</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>11745</v>
+        <v>11119</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>29720</v>
+        <v>29873</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.03788397907334087</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.023304626827531</v>
+        <v>0.02206089224002683</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.05896776740714261</v>
+        <v>0.05927328391855388</v>
       </c>
     </row>
     <row r="17">
@@ -2667,19 +2667,19 @@
         <v>60414</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>46881</v>
+        <v>45622</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>77732</v>
+        <v>75523</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.1198706193450477</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.09301909925818823</v>
+        <v>0.09052129167381674</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.1542316507047286</v>
+        <v>0.1498492091922201</v>
       </c>
     </row>
     <row r="18">
@@ -2696,19 +2696,19 @@
         <v>180233</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>160902</v>
+        <v>156450</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>202015</v>
+        <v>200677</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.3576082691586278</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.3192516150072402</v>
+        <v>0.3104183489047172</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.4008272206417689</v>
+        <v>0.3981712740724568</v>
       </c>
     </row>
     <row r="19">
@@ -2725,19 +2725,19 @@
         <v>151313</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>130657</v>
+        <v>129689</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>172671</v>
+        <v>173526</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.3002257097607375</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.2592414083438159</v>
+        <v>0.2573214706983084</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.3426034655983146</v>
+        <v>0.3442994239691228</v>
       </c>
     </row>
     <row r="20">
@@ -2754,19 +2754,19 @@
         <v>92943</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>77352</v>
+        <v>77141</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>111005</v>
+        <v>112464</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.1844114226622462</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.1534779949910067</v>
+        <v>0.1530597140562608</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.2202492751598456</v>
+        <v>0.2231453307877997</v>
       </c>
     </row>
     <row r="21">
@@ -2816,19 +2816,19 @@
         <v>251902</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>222166</v>
+        <v>219742</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>284254</v>
+        <v>282838</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.08255900633227772</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.07281344167967328</v>
+        <v>0.07201905471400205</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.09316232748182694</v>
+        <v>0.09269810982984206</v>
       </c>
     </row>
     <row r="23">
@@ -2845,19 +2845,19 @@
         <v>741474</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>694637</v>
+        <v>693787</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>790976</v>
+        <v>793511</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.2430129979746106</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.227662484100173</v>
+        <v>0.2273838931355784</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.259236995986203</v>
+        <v>0.260067637411485</v>
       </c>
     </row>
     <row r="24">
@@ -2874,19 +2874,19 @@
         <v>1103245</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>1054087</v>
+        <v>1048715</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>1160448</v>
+        <v>1158480</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.3615811140599579</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.3454696176863927</v>
+        <v>0.3437089819372682</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.3803287495100511</v>
+        <v>0.3796837939657986</v>
       </c>
     </row>
     <row r="25">
@@ -2903,19 +2903,19 @@
         <v>562675</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>520351</v>
+        <v>522245</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>607287</v>
+        <v>605924</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.184412809628991</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.170541497287166</v>
+        <v>0.1711622391029724</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.1990340954605458</v>
+        <v>0.1985872744256385</v>
       </c>
     </row>
     <row r="26">
@@ -2932,19 +2932,19 @@
         <v>391874</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>356751</v>
+        <v>357077</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>432747</v>
+        <v>430420</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.1284340720041628</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.1169227032048261</v>
+        <v>0.1170294227626855</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.1418299575130336</v>
+        <v>0.1410671872668966</v>
       </c>
     </row>
     <row r="27">
@@ -3111,19 +3111,19 @@
         <v>91399</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>79112</v>
+        <v>78846</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>105665</v>
+        <v>104065</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1632818975056073</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1413330879527368</v>
+        <v>0.1408563875414145</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1887695599545917</v>
+        <v>0.1859094745885691</v>
       </c>
     </row>
     <row r="5">
@@ -3140,19 +3140,19 @@
         <v>285567</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>267638</v>
+        <v>267719</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>303502</v>
+        <v>302139</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.5101613403191448</v>
+        <v>0.510161340319145</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.4781308774622422</v>
+        <v>0.4782755532605839</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.5422005027820118</v>
+        <v>0.5397668692432375</v>
       </c>
     </row>
     <row r="6">
@@ -3169,19 +3169,19 @@
         <v>100696</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>86643</v>
+        <v>87543</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>115518</v>
+        <v>114198</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.1798911014895017</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.1547859486703501</v>
+        <v>0.156394879758451</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.2063710679353203</v>
+        <v>0.2040128277897063</v>
       </c>
     </row>
     <row r="7">
@@ -3198,19 +3198,19 @@
         <v>57903</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>47367</v>
+        <v>46603</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>71950</v>
+        <v>70544</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1034433059690389</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.08462090021265839</v>
+        <v>0.08325608398905507</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1285382112501621</v>
+        <v>0.1260250214808308</v>
       </c>
     </row>
     <row r="8">
@@ -3227,19 +3227,19 @@
         <v>24194</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>17076</v>
+        <v>17975</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>32202</v>
+        <v>32567</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.04322235471670725</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.03050532793523874</v>
+        <v>0.03211191870097286</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.05752905561630732</v>
+        <v>0.05818033568292134</v>
       </c>
     </row>
     <row r="9">
@@ -3289,19 +3289,19 @@
         <v>120038</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>100445</v>
+        <v>102104</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>140383</v>
+        <v>139786</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>0.09132773609725402</v>
+        <v>0.09132773609725399</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.07642089723094483</v>
+        <v>0.07768299759265794</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1068069341546795</v>
+        <v>0.1063525211722063</v>
       </c>
     </row>
     <row r="11">
@@ -3318,19 +3318,19 @@
         <v>362257</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>337219</v>
+        <v>333918</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>389795</v>
+        <v>391527</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.275613364382928</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.256564318388128</v>
+        <v>0.254052489547258</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.2965653665057433</v>
+        <v>0.297882824083323</v>
       </c>
     </row>
     <row r="12">
@@ -3347,19 +3347,19 @@
         <v>392706</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>364561</v>
+        <v>362906</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>422243</v>
+        <v>423396</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>0.2987800337468959</v>
+        <v>0.2987800337468958</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.2773666717252856</v>
+        <v>0.276107489916685</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.3212523316889342</v>
+        <v>0.3221297624507852</v>
       </c>
     </row>
     <row r="13">
@@ -3376,19 +3376,19 @@
         <v>257612</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>233280</v>
+        <v>232206</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>285118</v>
+        <v>283443</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1959975149765504</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1774846897656112</v>
+        <v>0.1766680039771685</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.2169247187655811</v>
+        <v>0.2156498007565761</v>
       </c>
     </row>
     <row r="14">
@@ -3405,19 +3405,19 @@
         <v>181752</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>159505</v>
+        <v>160874</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>206376</v>
+        <v>205432</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.1382813507963718</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.121355138239468</v>
+        <v>0.1223968208363582</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.1570154751652798</v>
+        <v>0.1562976922790902</v>
       </c>
     </row>
     <row r="15">
@@ -3467,19 +3467,19 @@
         <v>8721</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>4523</v>
+        <v>4503</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>14857</v>
+        <v>14845</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.0191212550868234</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.009918263650562177</v>
+        <v>0.009874100495396625</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.03257625559896515</v>
+        <v>0.03254884486405805</v>
       </c>
     </row>
     <row r="17">
@@ -3496,19 +3496,19 @@
         <v>85601</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>71735</v>
+        <v>72380</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>100953</v>
+        <v>99546</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.1876907551961387</v>
+        <v>0.1876907551961388</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.1572877727913666</v>
+        <v>0.1587033399447598</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.2213534854696516</v>
+        <v>0.2182679257800497</v>
       </c>
     </row>
     <row r="18">
@@ -3525,19 +3525,19 @@
         <v>146685</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>127741</v>
+        <v>129513</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>164235</v>
+        <v>163068</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.321626408904685</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.2800881505291233</v>
+        <v>0.2839736974704045</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.3601069007861281</v>
+        <v>0.3575479491575151</v>
       </c>
     </row>
     <row r="19">
@@ -3554,19 +3554,19 @@
         <v>129002</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>113000</v>
+        <v>113250</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>145651</v>
+        <v>145721</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.2828535027844951</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.247767497748417</v>
+        <v>0.2483153285944189</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.3193599226962603</v>
+        <v>0.3195115978963288</v>
       </c>
     </row>
     <row r="20">
@@ -3583,19 +3583,19 @@
         <v>86065</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>71052</v>
+        <v>71292</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>103793</v>
+        <v>103223</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.1887080780278577</v>
+        <v>0.1887080780278578</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.1557902130439455</v>
+        <v>0.1563163176793808</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.2275796975282741</v>
+        <v>0.2263294758503253</v>
       </c>
     </row>
     <row r="21">
@@ -3645,19 +3645,19 @@
         <v>220157</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>195416</v>
+        <v>199029</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>245468</v>
+        <v>246299</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>0.09448005134127341</v>
+        <v>0.09448005134127339</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.08386247973483821</v>
+        <v>0.08541294689435043</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.1053419987064415</v>
+        <v>0.1056986195041905</v>
       </c>
     </row>
     <row r="23">
@@ -3674,19 +3674,19 @@
         <v>733425</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>696206</v>
+        <v>697543</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>771271</v>
+        <v>772111</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.3147478595767921</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.2987753516215476</v>
+        <v>0.2993489171200557</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.3309892382388098</v>
+        <v>0.3313498023722206</v>
       </c>
     </row>
     <row r="24">
@@ -3703,19 +3703,19 @@
         <v>640087</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>603792</v>
+        <v>599357</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>679204</v>
+        <v>678084</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.2746921676249123</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.2591162489756811</v>
+        <v>0.2572129440142877</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.2914790303003892</v>
+        <v>0.2909984986942103</v>
       </c>
     </row>
     <row r="25">
@@ -3732,19 +3732,19 @@
         <v>444518</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>410443</v>
+        <v>413973</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>477972</v>
+        <v>482595</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.190763914336445</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.1761407587764385</v>
+        <v>0.1776557898694413</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.2051206188541208</v>
+        <v>0.2071047766441192</v>
       </c>
     </row>
     <row r="26">
@@ -3761,19 +3761,19 @@
         <v>292011</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>263114</v>
+        <v>262886</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>321071</v>
+        <v>324547</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.1253160071205772</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.1129146770940736</v>
+        <v>0.1128170286987502</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.1377871262785166</v>
+        <v>0.1392786713766178</v>
       </c>
     </row>
     <row r="27">
